--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-03-22T19:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
